--- a/DataConvertCheckTool/data/test.xlsx
+++ b/DataConvertCheckTool/data/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t xml:space="preserve">変換ファイル名（フルパス）</t>
   </si>
@@ -399,35 +399,6 @@
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">\GitHub\path\WindowsFormsApp1\progress.cs</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">C:\Users\house\OneDrive\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">ドキュメント</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">\GitHub\path\WindowsFormsApp1\</t>
     </r>
   </si>
 </sst>
@@ -548,18 +519,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C12:D25"/>
+  <dimension ref="C12:D24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="12.8295454545455"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.2159090909091"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="86.2329545454545"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="12.8295454545455"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.6079545454545"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="95.0113636363636"/>
   </cols>
   <sheetData>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -664,14 +633,6 @@
       </c>
       <c r="D24" s="2" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
